--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ATBRCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ATBRCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>ATBRCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>295.12966899768657</v>
       </c>
       <c r="C2" t="n">
-        <v>49.938724943736524</v>
+        <v>257.33183386087734</v>
       </c>
       <c r="D2" t="n">
-        <v>46.13010336160645</v>
-      </c>
-      <c r="E2" t="n">
-        <v>53.7473465258666</v>
+        <v>332.9275041344958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>298.05439578702743</v>
       </c>
       <c r="C3" t="n">
-        <v>53.65799136122732</v>
+        <v>236.9964217628242</v>
       </c>
       <c r="D3" t="n">
-        <v>48.554716288712065</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58.76126643374257</v>
+        <v>359.1123698112306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>300.7963522264527</v>
       </c>
       <c r="C4" t="n">
-        <v>53.74930107883283</v>
+        <v>219.53226216871036</v>
       </c>
       <c r="D4" t="n">
-        <v>47.91871631813785</v>
-      </c>
-      <c r="E4" t="n">
-        <v>59.57988583952781</v>
+        <v>382.06044228419506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>304.1723356400853</v>
       </c>
       <c r="C5" t="n">
-        <v>54.02583925589498</v>
+        <v>205.02721828410358</v>
       </c>
       <c r="D5" t="n">
-        <v>47.74278687936823</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60.30889163242173</v>
+        <v>403.317452996067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>306.0176146108883</v>
       </c>
       <c r="C6" t="n">
-        <v>48.96774950090915</v>
+        <v>190.86525948575562</v>
       </c>
       <c r="D6" t="n">
-        <v>42.39093567782583</v>
-      </c>
-      <c r="E6" t="n">
-        <v>55.54456332399247</v>
+        <v>421.169969736021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>310.0527069800913</v>
       </c>
       <c r="C7" t="n">
-        <v>53.07050678747199</v>
+        <v>180.40960399761533</v>
       </c>
       <c r="D7" t="n">
-        <v>46.29863577800063</v>
-      </c>
-      <c r="E7" t="n">
-        <v>59.84237779694335</v>
+        <v>439.6958099625672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>313.4151385545174</v>
       </c>
       <c r="C8" t="n">
-        <v>53.48019199125789</v>
+        <v>170.51372456988702</v>
       </c>
       <c r="D8" t="n">
-        <v>46.57708797496597</v>
-      </c>
-      <c r="E8" t="n">
-        <v>60.38329600754981</v>
+        <v>456.3165525391478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>317.13784506560245</v>
       </c>
       <c r="C9" t="n">
-        <v>54.02104663156693</v>
+        <v>161.98772601629156</v>
       </c>
       <c r="D9" t="n">
-        <v>47.028925560358125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61.01316770277574</v>
+        <v>472.28796411491334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>319.1768737928834</v>
       </c>
       <c r="C10" t="n">
-        <v>49.18239334633418</v>
+        <v>152.6139367384159</v>
       </c>
       <c r="D10" t="n">
-        <v>42.12957236570339</v>
-      </c>
-      <c r="E10" t="n">
-        <v>56.23521432696497</v>
+        <v>485.7398108473509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>323.3202340231289</v>
       </c>
       <c r="C11" t="n">
-        <v>53.46732757210913</v>
+        <v>146.0448167304326</v>
       </c>
       <c r="D11" t="n">
-        <v>46.372972241760614</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60.56168290245764</v>
+        <v>500.5956513158252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>326.7431659560992</v>
       </c>
       <c r="C12" t="n">
-        <v>54.028256720067326</v>
+        <v>139.34923249079975</v>
       </c>
       <c r="D12" t="n">
-        <v>46.90541532902694</v>
-      </c>
-      <c r="E12" t="n">
-        <v>61.151098111107714</v>
+        <v>514.1370994213986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>330.4996802227703</v>
       </c>
       <c r="C13" t="n">
-        <v>54.69467462182821</v>
+        <v>133.4969839065609</v>
       </c>
       <c r="D13" t="n">
-        <v>47.55226569405286</v>
-      </c>
-      <c r="E13" t="n">
-        <v>61.83708354960356</v>
+        <v>527.5023765389797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>332.5576008106167</v>
       </c>
       <c r="C14" t="n">
-        <v>49.96026440373252</v>
+        <v>126.38852872757191</v>
       </c>
       <c r="D14" t="n">
-        <v>42.80439993556248</v>
-      </c>
-      <c r="E14" t="n">
-        <v>57.11612887190257</v>
+        <v>538.7266728936615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>336.7115178610189</v>
       </c>
       <c r="C15" t="n">
-        <v>54.33174159534395</v>
+        <v>121.76395491989274</v>
       </c>
       <c r="D15" t="n">
-        <v>47.16661776784507</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61.49686542284283</v>
+        <v>551.659080802145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>340.14034897217937</v>
       </c>
       <c r="C16" t="n">
-        <v>54.96451902195958</v>
+        <v>116.75757651788813</v>
       </c>
       <c r="D16" t="n">
-        <v>47.793020252110495</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62.13601779180867</v>
+        <v>563.5231214264707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>343.9001597147593</v>
       </c>
       <c r="C17" t="n">
-        <v>55.6905856207133</v>
+        <v>112.38854288802797</v>
       </c>
       <c r="D17" t="n">
-        <v>48.51469629552791</v>
-      </c>
-      <c r="E17" t="n">
-        <v>62.86647494589869</v>
+        <v>575.4117765414906</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>345.95992238180156</v>
       </c>
       <c r="C18" t="n">
-        <v>51.00569596343582</v>
+        <v>106.59494125236209</v>
       </c>
       <c r="D18" t="n">
-        <v>43.82678206404312</v>
-      </c>
-      <c r="E18" t="n">
-        <v>58.184609862828516</v>
+        <v>585.3249035112411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>350.1148687907849</v>
       </c>
       <c r="C19" t="n">
-        <v>55.41828530111887</v>
+        <v>103.14590051693273</v>
       </c>
       <c r="D19" t="n">
-        <v>48.237287491984574</v>
-      </c>
-      <c r="E19" t="n">
-        <v>62.59928311025317</v>
+        <v>597.0838370646371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>353.54427511016155</v>
       </c>
       <c r="C20" t="n">
-        <v>56.0851941779178</v>
+        <v>99.19842636993916</v>
       </c>
       <c r="D20" t="n">
-        <v>48.90276041106853</v>
-      </c>
-      <c r="E20" t="n">
-        <v>63.26762794476707</v>
+        <v>607.8901238503839</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>357.3044072805686</v>
       </c>
       <c r="C21" t="n">
-        <v>56.83959682825061</v>
+        <v>95.7896178097697</v>
       </c>
       <c r="D21" t="n">
-        <v>49.65617351194117</v>
-      </c>
-      <c r="E21" t="n">
-        <v>64.02302014456005</v>
+        <v>618.8191967513676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>359.3643495623054</v>
       </c>
       <c r="C22" t="n">
-        <v>52.178231861977544</v>
+        <v>90.8719308012834</v>
       </c>
       <c r="D22" t="n">
-        <v>44.99412658996684</v>
-      </c>
-      <c r="E22" t="n">
-        <v>59.36233713398825</v>
+        <v>627.8567683233275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>363.5193963404409</v>
       </c>
       <c r="C23" t="n">
-        <v>56.61035148196926</v>
+        <v>88.22612791999211</v>
       </c>
       <c r="D23" t="n">
-        <v>49.42577621788668</v>
-      </c>
-      <c r="E23" t="n">
-        <v>63.79492674605184</v>
+        <v>638.8126647608897</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>366.9488587463573</v>
       </c>
       <c r="C24" t="n">
-        <v>57.293474468742446</v>
+        <v>85.01873544305947</v>
       </c>
       <c r="D24" t="n">
-        <v>50.10857528618171</v>
-      </c>
-      <c r="E24" t="n">
-        <v>64.47837365130317</v>
+        <v>648.8789820496552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>370.7090222580666</v>
       </c>
       <c r="C25" t="n">
-        <v>58.061338130959406</v>
+        <v>82.2947219658315</v>
       </c>
       <c r="D25" t="n">
-        <v>50.8762156999894</v>
-      </c>
-      <c r="E25" t="n">
-        <v>65.24646056192941</v>
+        <v>659.1233225503017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>372.7689820534036</v>
       </c>
       <c r="C26" t="n">
-        <v>53.411148544724625</v>
+        <v>78.0131089996109</v>
       </c>
       <c r="D26" t="n">
-        <v>46.22587224651502</v>
-      </c>
-      <c r="E26" t="n">
-        <v>60.59642484293423</v>
+        <v>667.5248551071963</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>376.9240386181837</v>
       </c>
       <c r="C27" t="n">
-        <v>57.85254600505071</v>
+        <v>75.96018389849195</v>
       </c>
       <c r="D27" t="n">
-        <v>50.66716365761728</v>
-      </c>
-      <c r="E27" t="n">
-        <v>65.03792835248414</v>
+        <v>677.8878933378754</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>380.35350649290234</v>
       </c>
       <c r="C28" t="n">
-        <v>58.54337148793367</v>
+        <v>73.30715886949478</v>
       </c>
       <c r="D28" t="n">
-        <v>51.357916048260996</v>
-      </c>
-      <c r="E28" t="n">
-        <v>65.72882692760633</v>
+        <v>687.3998541163098</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>384.11367306059236</v>
       </c>
       <c r="C29" t="n">
-        <v>59.317629789870956</v>
+        <v>71.10300605155486</v>
       </c>
       <c r="D29" t="n">
-        <v>52.132123972685434</v>
-      </c>
-      <c r="E29" t="n">
-        <v>66.50313560705648</v>
+        <v>697.1243400696299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>386.1736345636192</v>
       </c>
       <c r="C30" t="n">
-        <v>54.67274905632108</v>
+        <v>67.3101905641317</v>
       </c>
       <c r="D30" t="n">
-        <v>47.48720851724712</v>
-      </c>
-      <c r="E30" t="n">
-        <v>61.85828959539504</v>
+        <v>705.0370785631068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>390.3286920826608</v>
       </c>
       <c r="C31" t="n">
-        <v>59.11855394506575</v>
+        <v>65.7179801822702</v>
       </c>
       <c r="D31" t="n">
-        <v>51.932989474445996</v>
-      </c>
-      <c r="E31" t="n">
-        <v>66.3041184156855</v>
+        <v>714.9394039830514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>393.75816049062314</v>
       </c>
       <c r="C32" t="n">
-        <v>59.813038490728914</v>
+        <v>63.50018148091902</v>
       </c>
       <c r="D32" t="n">
-        <v>52.62745752562583</v>
-      </c>
-      <c r="E32" t="n">
-        <v>66.99861945583199</v>
+        <v>724.0161395003272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>397.51832735629114</v>
       </c>
       <c r="C33" t="n">
-        <v>60.59033455962642</v>
+        <v>61.70803693774768</v>
       </c>
       <c r="D33" t="n">
-        <v>53.404742225921375</v>
-      </c>
-      <c r="E33" t="n">
-        <v>67.77592689333146</v>
+        <v>733.3286177748346</v>
       </c>
     </row>
   </sheetData>
